--- a/results/carga_rapida.xlsx
+++ b/results/carga_rapida.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,13 +405,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -419,13 +419,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -433,13 +433,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -447,13 +447,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -461,13 +461,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -475,13 +475,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -489,13 +489,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -503,13 +503,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -517,13 +517,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -531,13 +531,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -545,10 +545,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -573,13 +573,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -587,13 +587,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -601,10 +601,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -629,13 +629,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -657,13 +657,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -671,13 +671,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -699,13 +699,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -713,13 +713,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -755,13 +755,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -769,13 +769,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -797,13 +797,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -811,13 +811,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -825,13 +825,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -839,13 +839,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -881,13 +881,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -895,13 +895,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -909,13 +909,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -923,13 +923,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -937,13 +937,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -951,13 +951,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -965,13 +965,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -979,13 +979,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1021,13 +1021,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1063,13 +1063,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1077,10 +1077,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>10</v>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>11</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1245,13 +1245,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1259,13 +1259,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1273,13 +1273,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1287,13 +1287,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1301,13 +1301,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1315,13 +1315,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1343,13 +1343,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1357,13 +1357,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1371,13 +1371,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1385,13 +1385,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1413,15 +1413,57 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>57</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>23</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>57</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>21</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>58</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>17</v>
+      </c>
+      <c r="D77">
         <v>1</v>
       </c>
     </row>

--- a/results/carga_rapida.xlsx
+++ b/results/carga_rapida.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,13 +405,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -419,13 +419,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -433,13 +433,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -447,13 +447,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -461,13 +461,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -475,13 +475,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -489,13 +489,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -503,13 +503,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -517,13 +517,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -531,13 +531,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -545,13 +545,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -559,13 +559,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -573,13 +573,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -601,13 +601,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -629,13 +629,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -671,13 +671,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -699,13 +699,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -713,13 +713,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -755,13 +755,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -769,13 +769,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -797,13 +797,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -811,13 +811,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -825,13 +825,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -839,13 +839,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -881,13 +881,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -895,13 +895,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -909,13 +909,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -923,13 +923,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -937,13 +937,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -951,13 +951,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -965,13 +965,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -979,13 +979,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1021,13 +1021,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1063,13 +1063,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1077,13 +1077,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1133,13 +1133,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>16</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1259,13 +1259,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1273,13 +1273,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1287,13 +1287,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1301,13 +1301,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1315,13 +1315,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1343,13 +1343,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1357,13 +1357,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1371,13 +1371,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1385,13 +1385,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1413,13 +1413,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1455,15 +1455,953 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>13</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>35</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>36</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>36</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>36</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>36</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
         <v>17</v>
       </c>
-      <c r="D77">
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>37</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>37</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>17</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>37</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>40</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>40</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>40</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>41</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>41</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>41</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>41</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>11</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>41</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>41</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>21</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>46</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>23</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>46</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>24</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>46</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>46</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>46</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>46</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>48</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>48</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>48</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>53</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>53</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>21</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>53</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>56</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>56</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>19</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>56</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>57</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>57</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>57</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>16</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>59</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>22</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>62</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>62</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>17</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>62</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>19</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>62</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>62</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>20</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>62</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>22</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>63</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>63</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>63</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>23</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>63</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>6</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>63</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>22</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>63</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>19</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>63</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>24</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>66</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>66</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>19</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>66</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>24</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>66</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>13</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>66</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>68</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>68</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>20</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>68</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>21</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>68</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>68</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>70</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>4</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>70</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>70</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>17</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>70</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>16</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>70</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>23</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>70</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>11</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>70</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>24</v>
+      </c>
+      <c r="D144">
         <v>1</v>
       </c>
     </row>
